--- a/TestResultat.xlsx
+++ b/TestResultat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t xml:space="preserve">1 = Critical</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">https://localhost:44300/Items</t>
   </si>
   <si>
-    <t xml:space="preserve">Länken ’Details’ bör synas bättre och säras lite från länken ’Add to cart’</t>
+    <t xml:space="preserve">Länken ’Details’ bör synas bättre och säras lite från länken ’Add to cart’  (gäller även ’Edit’ och ’Delete’ i Adminläge)</t>
   </si>
   <si>
     <t xml:space="preserve">https://localhost:44300/Items#</t>
@@ -115,7 +115,13 @@
     <t xml:space="preserve">https://localhost:44300/Items/Details/5</t>
   </si>
   <si>
-    <t xml:space="preserve">Knapparna ’Add to cart’ och ’Back to List’ ligger så tätt ihop att de inte går att urskilja</t>
+    <t xml:space="preserve">Knapparna ’Add to cart’ och ’Back to List’ ligger så tätt ihop att de inte går att urskilja  (gäller även ’Edit’ i Adminläge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://localhost:44300/Items/Details/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det kan vara bra att veta vilken valuta priserna är på.</t>
   </si>
   <si>
     <t xml:space="preserve">Om eButiken/Information</t>
@@ -220,24 +226,24 @@
     <t xml:space="preserve">Om man klickar på länken ’store’ så borde man automatiskt hamna på sidan för produkter</t>
   </si>
   <si>
-    <t xml:space="preserve">https://localhost:44300/Checkout/Complete/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">När man loggar ur och sedan loggar in med en annan användare så nollställs inte räknaren för ordernummer. Den räknar vidare på den förre användarens orderserie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orderhistorik</t>
   </si>
   <si>
+    <t xml:space="preserve">https://localhost:44300/OrderHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det vore praktiskt om man kunde sortera orderhistoriken på ordernr, datum och summa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det vore praktiskt om det fanns en sökfunktion för sökning av produkter i detaljbilderna.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://localhost:44300/OrderHistory?page=1</t>
   </si>
   <si>
     <t xml:space="preserve">Summan blir 0,00 oavsett order</t>
   </si>
   <si>
-    <t xml:space="preserve">https://localhost:44300/OrderHistory</t>
-  </si>
-  <si>
     <t xml:space="preserve">Den visar bara tre rader åt gången. Det finns plats för minst 10 rader åt gången.</t>
   </si>
   <si>
@@ -274,6 +280,12 @@
     <t xml:space="preserve">Save info knappen verkar helt onödig (den verkar i alla fall inte fungera)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://localhost:44300/Orders/Edit/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det finns ingen funktion för att lägga till eller ta bort en produkt från ordern eller ändra antal i befintlig produkt.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://localhost:44300/Orders</t>
   </si>
   <si>
@@ -359,6 +371,27 @@
   </si>
   <si>
     <t xml:space="preserve">Användare utan vald behörighetsgrupp – Vad får de för behörighet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin/Produkter/Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://localhost:44300/Items/Edit/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'The field Price must be a number’ kommer upp när man försöker ändra på något fält och sedan spara (utan att ens ha rört prisfältet).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin/Produkter/Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://localhost:44300/Items/Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload Image – Det går att välja en fil men när man klickar på ’Create’ så syns inte bilden i produktlistan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Price must be between 0.01 and 999.99 ’ kommer upp när man ska skapa ny produktrad (angivet pris låg över 1000 kr).</t>
   </si>
 </sst>
 </file>
@@ -844,7 +877,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1055,6 +1088,10 @@
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1151,12 +1188,12 @@
     <tabColor rgb="FF9E5F9F"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1330,310 +1367,310 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+    <row r="14" s="33" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="E14" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="B15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
+      <c r="E15" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="B16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="34" t="n">
+      <c r="B17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
+    <row r="18" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="32" t="n">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="32" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="20" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
+      <c r="E19" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="32" t="n">
+      <c r="B20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="32" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="B22" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
+    <row r="25" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="E25" s="34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
+    <row r="26" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="42" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27" t="s">
         <v>54</v>
       </c>
+      <c r="E26" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="E27" s="29" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="28" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="32" t="n">
+    <row r="28" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="32" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="29" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="34" t="n">
+    <row r="30" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="43" t="s">
+    <row r="31" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="E32" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27" t="s">
+      <c r="E33" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="44" t="s">
         <v>66</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>68</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="32" t="n">
         <v>2</v>
@@ -1641,59 +1678,59 @@
     </row>
     <row r="35" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E35" s="29" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E38" s="29" t="n">
         <v>3</v>
@@ -1701,197 +1738,287 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B39" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47" t="s">
-        <v>79</v>
       </c>
       <c r="E39" s="32" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="E41" s="32" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B43" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27" t="s">
+      <c r="E43" s="32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3</v>
+      <c r="E44" s="32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B46" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="s">
+      <c r="E46" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B47" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="35" t="s">
+      <c r="E47" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B48" s="35" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>99</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E48" s="29" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="35" t="s">
-        <v>98</v>
+      <c r="A49" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E49" s="29" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="51" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="35" t="s">
         <v>99</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="35"/>
       <c r="D50" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="E50" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>105</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>3</v>
+      <c r="E52" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="32" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestResultat.xlsx
+++ b/TestResultat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t xml:space="preserve">1 = Critical</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">'Price must be between 0.01 and 999.99 ’ kommer upp när man ska skapa ny produktrad (angivet pris låg över 1000 kr).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'The field Price must be a number’ (när man använder komma – 255,00) </t>
   </si>
 </sst>
 </file>
@@ -877,7 +880,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1091,6 +1094,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1188,12 +1195,12 @@
     <tabColor rgb="FF9E5F9F"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2021,6 +2028,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/TestResultat.xlsx
+++ b/TestResultat.xlsx
@@ -334,7 +334,7 @@
     <t xml:space="preserve">De tre olika graferna går in i varandra</t>
   </si>
   <si>
-    <t xml:space="preserve">Stämmer statistiken verkligen och vad visar den egentligen</t>
+    <t xml:space="preserve">Stämmer statistiken verkligen och vad visar den egentligen – Den ska egentligen summera hur många ordrar det blev per dag…</t>
   </si>
   <si>
     <t xml:space="preserve">Admin </t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">https://localhost:44300/</t>
   </si>
   <si>
-    <t xml:space="preserve">Rubriken ’Roles Admin’ skulle kunna översättas till ’Admin Behörigheter’ eller ’Administratörs Behörigheter’</t>
+    <t xml:space="preserve">Rubriken ’Roles Admin’ skulle kunna översättas till ’Admin Behörigheter’ eller ’Administratörs Behörigheter’ eller helst tas bort</t>
   </si>
   <si>
     <t xml:space="preserve">Admin/Administratörer</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Fokus på värdefältet</t>
   </si>
   <si>
-    <t xml:space="preserve">Rubriken ’Administratörer’ ska ändras till ’Användargrupper’</t>
+    <t xml:space="preserve">Rubriken ’Administratörer’ ska ändras till ’Användargrupper’ eller ’Roles’</t>
   </si>
   <si>
     <t xml:space="preserve">Admin/Användare/Edit</t>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">Upload Image – Det går att välja en fil men när man klickar på ’Create’ så syns inte bilden i produktlistan.</t>
   </si>
   <si>
-    <t xml:space="preserve">'Price must be between 0.01 and 999.99 ’ kommer upp när man ska skapa ny produktrad (angivet pris låg över 1000 kr).</t>
+    <t xml:space="preserve">'Price must be between 0.01 and 999.99 ’ kommer upp när man ska skapa ny produktrad (angivet pris låg över 1000 kr) – Vi lägger till två siffror (till 99 999.99)</t>
   </si>
   <si>
     <t xml:space="preserve">'The field Price must be a number’ (när man använder komma – 255,00) </t>
@@ -619,7 +619,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,7 +653,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
     <fill>
@@ -696,6 +696,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006600"/>
       </patternFill>
     </fill>
   </fills>
@@ -880,7 +904,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1065,19 +1089,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1090,6 +1118,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,8 +1129,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1171,14 +1207,14 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD700"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF9E5F9F"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF006400"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF8B4513"/>
       <rgbColor rgb="FF993366"/>
@@ -1198,9 +1234,9 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1747,10 +1783,10 @@
       <c r="A39" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="47"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="30" t="s">
         <v>78</v>
       </c>
@@ -1762,10 +1798,10 @@
       <c r="A40" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="20" t="s">
         <v>79</v>
       </c>
@@ -1777,10 +1813,10 @@
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="20" t="s">
         <v>81</v>
       </c>
@@ -1792,11 +1828,11 @@
       <c r="A42" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="48" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="32" t="n">
@@ -1885,7 +1921,7 @@
       <c r="B48" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="35" t="s">
         <v>97</v>
       </c>
@@ -1900,7 +1936,7 @@
       <c r="B49" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="35"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="35" t="s">
         <v>98</v>
       </c>
@@ -1915,7 +1951,7 @@
       <c r="B50" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="35"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="35" t="s">
         <v>101</v>
       </c>
@@ -1930,7 +1966,7 @@
       <c r="B51" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="35"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="35" t="s">
         <v>104</v>
       </c>
@@ -1954,13 +1990,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="35" t="s">
         <v>107</v>
       </c>
@@ -1969,10 +2005,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="53" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="35"/>
@@ -1990,8 +2026,8 @@
       <c r="B55" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="53" t="s">
+      <c r="C55" s="54"/>
+      <c r="D55" s="55" t="s">
         <v>113</v>
       </c>
       <c r="E55" s="34" t="n">
@@ -2020,8 +2056,8 @@
       <c r="B57" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="53" t="s">
+      <c r="C57" s="56"/>
+      <c r="D57" s="55" t="s">
         <v>117</v>
       </c>
       <c r="E57" s="32" t="n">
@@ -2032,10 +2068,11 @@
       <c r="A58" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="C58" s="57"/>
+      <c r="D58" s="55" t="s">
         <v>118</v>
       </c>
       <c r="E58" s="34" t="n">

--- a/TestResultat.xlsx
+++ b/TestResultat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
   <si>
     <t xml:space="preserve">1 = Critical</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Prioritet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Åtgärd / Orsak</t>
   </si>
   <si>
     <t xml:space="preserve">Registrera</t>
@@ -361,7 +364,7 @@
     <t xml:space="preserve">Fokus på värdefältet</t>
   </si>
   <si>
-    <t xml:space="preserve">Rubriken ’Administratörer’ ska ändras till ’Användargrupper’ eller ’Roles’</t>
+    <t xml:space="preserve">Rubriken ’Administratörer’ ska ändras till ’Användargrupper’ eller ’Roller’</t>
   </si>
   <si>
     <t xml:space="preserve">Admin/Användare/Edit</t>
@@ -388,13 +391,19 @@
     <t xml:space="preserve">https://localhost:44300/Items/Create</t>
   </si>
   <si>
-    <t xml:space="preserve">Upload Image – Det går att välja en fil men när man klickar på ’Create’ så syns inte bilden i produktlistan.</t>
+    <t xml:space="preserve">'The field Price must be a number’ (när man använder komma – 255,00) och ’The value '499.55' is not valid for Price.’ när man använder punkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det är funktionen ’validate’ som inte godkänner punkt och komma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload Image – Det går att välja en fil men när man klickar på ’Create’ så syns inte bilden i produktlistan (att länka en bild genom att ange URL’n fungerar dock bra).</t>
   </si>
   <si>
     <t xml:space="preserve">'Price must be between 0.01 and 999.99 ’ kommer upp när man ska skapa ny produktrad (angivet pris låg över 1000 kr) – Vi lägger till två siffror (till 99 999.99)</t>
   </si>
   <si>
-    <t xml:space="preserve">'The field Price must be a number’ (när man använder komma – 255,00) </t>
+    <t xml:space="preserve">Utöka ’range’ till 100 000</t>
   </si>
 </sst>
 </file>
@@ -619,7 +628,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,7 +644,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -700,20 +709,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8B0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFD700"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF0E68C"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -904,7 +907,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -969,6 +972,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1037,10 +1044,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1089,14 +1092,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1105,7 +1108,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,15 +1116,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1129,11 +1128,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1197,9 +1192,9 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFFFE0"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFFE0"/>
+      <rgbColor rgb="FFF0E68C"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1231,11 +1226,11 @@
     <tabColor rgb="FF9E5F9F"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -1244,9 +1239,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="143.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="144.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1286,749 +1282,777 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="16" customFormat="true" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" s="17" customFormat="true" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="15"/>
-    </row>
-    <row r="6" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="21" t="n">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="22" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" s="30" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" s="31" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="29" t="n">
-        <v>3</v>
-      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" s="30" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="B9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27" t="s">
+      <c r="E9" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" s="31" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" s="33" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
+      <c r="E10" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="33" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12" s="30" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="27" t="s">
+    <row r="12" s="31" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" s="33" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="E12" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13" s="16" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="32" t="n">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="33" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="33" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+    <row r="14" s="16" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="E14" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="E15" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="E16" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>36</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="32" t="n">
+      <c r="B18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="33" t="n">
         <v>2</v>
       </c>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="E19" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="32" t="n">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="33" t="n">
         <v>2</v>
       </c>
+      <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="E21" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
         <v>46</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="36" t="n">
         <v>1</v>
       </c>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>47</v>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="37"/>
-    </row>
-    <row r="24" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27" t="s">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
         <v>49</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="E24" s="34" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>51</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E25" s="34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
         <v>54</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="34" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38" t="s">
-        <v>52</v>
-      </c>
       <c r="B28" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="s">
-        <v>52</v>
-      </c>
       <c r="B29" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="s">
-        <v>52</v>
-      </c>
       <c r="B30" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="28"/>
       <c r="D30" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" s="34" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>59</v>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="C31" s="21"/>
       <c r="D31" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
         <v>62</v>
       </c>
+      <c r="E31" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="B32" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="42" t="s">
+      <c r="B33" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="45" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
+      <c r="B34" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="32" t="n">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="33" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="30" t="s">
+    <row r="35" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="B35" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="E35" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
+      <c r="B36" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="32" t="n">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="33" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="37" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
+    <row r="37" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="E37" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
+      <c r="B38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
         <v>77</v>
       </c>
+      <c r="B39" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="C39" s="46"/>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="32" t="n">
+      <c r="C40" s="47"/>
+      <c r="D40" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="33" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="32" t="n">
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="33" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="32" t="n">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="33" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="20" t="s">
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="33" t="s">
+      <c r="B44" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="32" t="n">
+      <c r="C44" s="28"/>
+      <c r="D44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="33" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="E45" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27" t="s">
+      <c r="B46" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="29" t="n">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+      <c r="B47" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="E47" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="35" t="s">
+      <c r="B48" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="35" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="29" t="n">
+      <c r="B49" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="50"/>
+        <v>101</v>
+      </c>
+      <c r="C50" s="49"/>
       <c r="D50" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="E50" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="35" t="s">
+      <c r="B51" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="29" t="n">
+      <c r="C51" s="49"/>
+      <c r="D51" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="32" t="n">
+      <c r="B53" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="33" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="53" t="s">
         <v>109</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="E54" s="30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="55" t="s">
+      <c r="B55" s="21" t="s">
         <v>113</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="E55" s="34" t="n">
         <v>1</v>
@@ -2036,47 +2060,53 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35" t="s">
+      <c r="B57" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="32" t="n">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="33" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="34" t="n">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/TestResultat.xlsx
+++ b/TestResultat.xlsx
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
+  <si>
+    <t xml:space="preserve">BetaTester – Butiksprojektet 2017</t>
+  </si>
   <si>
     <t xml:space="preserve">1 = Critical</t>
   </si>
   <si>
-    <t xml:space="preserve">BetaTester – Butiksprojektet 2017</t>
+    <t xml:space="preserve">Delvis åtgärdat →   </t>
   </si>
   <si>
     <t xml:space="preserve">2 = Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Åtgärdat →   </t>
   </si>
   <si>
     <t xml:space="preserve">3 = Optional</t>
@@ -97,7 +103,75 @@
     <t xml:space="preserve">https://localhost:44300/Items</t>
   </si>
   <si>
-    <t xml:space="preserve">Länken ’Details’ bör synas bättre och säras lite från länken ’Add to cart’  (gäller även ’Edit’ och ’Delete’ i Adminläge)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Länken ’Details’ bör synas bättre och säras lite från länken ’Add to cart’  (gäller även ’</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">’ och ’</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">’ i </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adminläge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Länken ’Details’ har ersats av att man kan klicka på hela bilden eller länken för se detaljerna. ’Add to cart’ länken har ersatts av en fin ’Lägg i Kundvagn’-knapp.</t>
   </si>
   <si>
     <t xml:space="preserve">https://localhost:44300/Items#</t>
@@ -182,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve">Klicka på detaljer: 'An exception of type 'System.NullReferenceException' occurred in App_Web_cx0onc54.dll but was not handled in user code’ +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den plockade kundvagnens id istället för varans id i controlern.</t>
   </si>
   <si>
     <t xml:space="preserve"> ’Objektreferensen har inte angetts till en instans av ett objekt.’                ’ViewBag.Title = "Item - " + Model.Name;’ i viewern Details</t>
@@ -525,6 +602,15 @@
     </font>
     <font>
       <b val="true"/>
+      <u val="single"/>
+      <sz val="16"/>
+      <color rgb="FF0000CD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF8B0000"/>
       <name val="Arial"/>
@@ -533,15 +619,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000CD"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="16"/>
       <color rgb="FF0000CD"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -628,7 +705,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,8 +762,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF4500"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006600"/>
       </patternFill>
     </fill>
     <fill>
@@ -703,8 +792,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBDB76B"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -719,14 +820,8 @@
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006600"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -753,19 +848,19 @@
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
       <top style="hair"/>
       <bottom/>
       <diagonal/>
@@ -792,20 +887,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top/>
@@ -815,13 +896,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
       <top/>
       <bottom style="hair"/>
       <diagonal/>
@@ -907,7 +981,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -916,11 +990,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,11 +1022,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -952,184 +1042,180 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1173,7 +1259,7 @@
       <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF9400D3"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFBDB76B"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1195,16 +1281,16 @@
       <rgbColor rgb="FFFFFFE0"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFF0E68C"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF90EE90"/>
       <rgbColor rgb="FFFFD700"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4500"/>
       <rgbColor rgb="FF9E5F9F"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1226,12 +1312,12 @@
     <tabColor rgb="FF9E5F9F"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1245,868 +1331,880 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="5" s="14" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" s="17" customFormat="true" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+    </row>
+    <row r="6" s="21" customFormat="true" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" s="31" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" s="35" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" s="31" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28" t="s">
+      <c r="E9" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11" s="16" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="E10" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" s="35" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="n">
+      <c r="E11" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" s="20" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12" s="31" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="0"/>
-    </row>
-    <row r="13" s="16" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="13" s="35" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="33" t="n">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" s="20" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="16" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="28" t="s">
+    <row r="15" s="20" customFormat="true" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="E15" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+      <c r="E16" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="33" t="n">
+      <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35" t="s">
+      <c r="F19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="33" t="n">
+      <c r="E20" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="35" t="s">
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="36" t="n">
+      <c r="E22" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="F23" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="34" t="n">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="0"/>
-    </row>
-    <row r="25" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="34" t="n">
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="34" t="n">
+    <row r="27" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="0"/>
-    </row>
-    <row r="27" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="42" t="s">
+      <c r="F27" s="0"/>
+    </row>
+    <row r="28" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" s="0"/>
-    </row>
-    <row r="29" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="43" t="s">
+      <c r="B28" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="33" t="n">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="0"/>
+    </row>
+    <row r="30" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="30" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="34" t="n">
+    <row r="31" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="0"/>
-    </row>
-    <row r="31" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="45" t="s">
+      <c r="F31" s="0"/>
+    </row>
+    <row r="32" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="42" t="s">
+      <c r="B32" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="43" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="45" t="s">
+      <c r="E32" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28" t="s">
+      <c r="B33" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="33" t="n">
+      <c r="C33" s="32"/>
+      <c r="D33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="33" t="n">
+    <row r="36" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="37" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
+    <row r="38" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
+      <c r="B38" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="16" t="s">
+      <c r="E38" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="33" t="n">
+      <c r="B39" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="21" t="s">
+    <row r="41" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="21" t="s">
+      <c r="B41" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="33" t="n">
+      <c r="C41" s="51"/>
+      <c r="D41" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="33" t="n">
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="33" t="n">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="33" t="n">
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="28" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28" t="s">
+      <c r="B46" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
+      <c r="E46" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B47" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+      <c r="E47" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B48" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="35" t="s">
+      <c r="E48" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B49" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="35" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="s">
+      <c r="E49" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="E50" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="21" t="s">
+      <c r="B51" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="35" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35" t="s">
+      <c r="E51" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="21" t="s">
+      <c r="B52" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="33" t="n">
+      <c r="C52" s="53"/>
+      <c r="D52" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="21" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="43" t="s">
+      <c r="B55" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="34" t="n">
+      <c r="C55" s="38"/>
+      <c r="D55" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="34" t="n">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21" t="s">
+      <c r="F57" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="33" t="n">
+      <c r="B58" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="54" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="33" t="n">
+      <c r="C59" s="34"/>
+      <c r="D59" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>121</v>
+      <c r="F59" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
